--- a/biology/Botanique/Brocchinia_(Bromeliaceae)/Brocchinia_(Bromeliaceae).xlsx
+++ b/biology/Botanique/Brocchinia_(Bromeliaceae)/Brocchinia_(Bromeliaceae).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brocchinia est un genre de plantes de la famille des Bromeliaceae, originaire d'Amérique du sud, et plus particulièrement du Venezuela et du Guyana. Il comprend au moins 21 espèces, dont 2 sont carnivores, espèces qui piègent leurs proies par du liquide entre les feuilles, système appelé « piège passif ».
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé en l'honneur du naturaliste italien Giovanni Battista Brocchi.
 </t>
@@ -542,7 +556,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Attention, ne pas confondre ce genre de plantes avec le genre animal Brocchinia qui regroupe des mollusques de la famille des Cancellariidae. 
 </t>
@@ -573,7 +589,9 @@
           <t>Adaptation et évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre de plantes Brocchinia semble s'être écarté des autres Broméliacées il y a plusieurs millions d'années et est adapté à un environnement très particulier : les montagnes du Roraima aux sols pauvres et acides, aux températures plus fraiches et à l'hygrométrie élevée. Cette particularité a vraisemblablement généré le développement de deux espèces carnivores : Brocchinia reducta et Brocchinia hechtioides.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les Jardins botaniques royaux de Kew[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les Jardins botaniques royaux de Kew :
 Brocchinia acuminata L.B.Sm. (1939)
 Brocchinia amazonica L.B.Sm. (1984)
 Brocchinia cataractarum (Sandwith) B.Holst (1997)
